--- a/starter/src/main/resources/excel/team_member.xlsx
+++ b/starter/src/main/resources/excel/team_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="10680"/>
+    <workbookView windowWidth="30440" windowHeight="12040"/>
   </bookViews>
   <sheets>
     <sheet name="自动回复" sheetId="1" r:id="rId1"/>
@@ -29,25 +29,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>昵称</t>
+    <t>Nickname</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>工号</t>
-  </si>
-  <si>
-    <t>职位</t>
-  </si>
-  <si>
-    <t>座位号</t>
-  </si>
-  <si>
-    <t>座机</t>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Job No</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Seat No</t>
+  </si>
+  <si>
+    <t>Telephone</t>
   </si>
   <si>
     <t>张三</t>
@@ -681,7 +681,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>

--- a/starter/src/main/resources/excel/team_member.xlsx
+++ b/starter/src/main/resources/excel/team_member.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Nickname</t>
   </si>
@@ -50,22 +50,46 @@
     <t>Telephone</t>
   </si>
   <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>zhangsan@email.com</t>
+    <t>test0</t>
+  </si>
+  <si>
+    <t>100@email.com</t>
   </si>
   <si>
     <t>CEO</t>
   </si>
   <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>lisi@email.com</t>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>101@email.com</t>
   </si>
   <si>
     <t>CTO</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>102@email.com</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>103@email.com</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>104@email.com</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>105@email.com</t>
   </si>
 </sst>
 </file>
@@ -89,15 +113,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,12 +573,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,9 +703,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1065,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="24.0288461538462" customWidth="1"/>
     <col min="2" max="2" width="21.9423076923077" customWidth="1"/>
@@ -1113,48 +1139,132 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>18800000003</v>
+        <v>18888888000</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3">
-        <v>18800000004</v>
+        <v>18800000001</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>18800000002</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>18800000003</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>18800000004</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="F6">
         <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>18800000005</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="zhangsan@email.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="lisi@email.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="100@email.com" tooltip="mailto:100@email.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="101@email.com" tooltip="mailto:101@email.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="102@email.com" tooltip="mailto:102@email.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="103@email.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="104@email.com"/>
+    <hyperlink ref="B7" r:id="rId6" display="105@email.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/starter/src/main/resources/excel/team_member.xlsx
+++ b/starter/src/main/resources/excel/team_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30440" windowHeight="12040"/>
+    <workbookView windowWidth="26980" windowHeight="11380"/>
   </bookViews>
   <sheets>
     <sheet name="自动回复" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Nickname</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>102@email.com</t>
+  </si>
+  <si>
+    <t>member</t>
   </si>
   <si>
     <t>test3</t>
@@ -707,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1094,7 +1097,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1190,6 +1193,9 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
       <c r="F4">
         <v>2</v>
       </c>
@@ -1199,16 +1205,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>18800000003</v>
       </c>
       <c r="D5">
         <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1219,16 +1228,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>18800000004</v>
       </c>
       <c r="D6">
         <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -1239,16 +1251,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>18800000005</v>
       </c>
       <c r="D7">
         <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
         <v>5</v>
